--- a/data/sankeydata.xlsx
+++ b/data/sankeydata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tijslangeveld/Dev/visualisaties/RKES/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A48D718-3085-8843-A9FC-22A25D057A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B2964-9126-6249-869F-ECFB53278B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{CF2ACC50-58CF-804A-BD82-4620AD931218}"/>
+    <workbookView xWindow="49760" yWindow="-1720" windowWidth="33760" windowHeight="27040" xr2:uid="{CF2ACC50-58CF-804A-BD82-4620AD931218}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -1311,9 +1311,7 @@
   </sheetPr>
   <dimension ref="A1:V864"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="81" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2536,7 +2534,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O47" sqref="O47"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4154,28 +4152,28 @@
         <v>0</v>
       </c>
       <c r="M22" s="14">
-        <v>145920567270.70761</v>
+        <v>138127919420.13904</v>
       </c>
       <c r="N22" s="14">
-        <v>198302464984.34113</v>
+        <v>149537414354.92062</v>
       </c>
       <c r="O22" s="14">
-        <v>246866357276.06863</v>
+        <v>161896069502.19016</v>
       </c>
       <c r="P22" s="14">
-        <v>392209821397.03809</v>
+        <v>240083979105.84393</v>
       </c>
       <c r="Q22" s="14">
-        <v>137463838463.70264</v>
+        <v>125281996052.73041</v>
       </c>
       <c r="R22" s="14">
-        <v>193409587987.90952</v>
+        <v>111593169697.97113</v>
       </c>
       <c r="S22" s="14">
-        <v>204555877911.50128</v>
+        <v>89785061232.578232</v>
       </c>
       <c r="T22" s="14">
-        <v>225240004321.0484</v>
+        <v>84136865311.790558</v>
       </c>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
@@ -5160,28 +5158,28 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>5109087001.3661604</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>31971788161.010601</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>34663743977.276596</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>53398506257.120499</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>7986770852.2268801</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>53641227885.456596</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>47253233230.466599</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>51147012841.137604</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="29"/>
       <c r="AB30" s="29"/>
@@ -9872,28 +9870,28 @@
         <v>0</v>
       </c>
       <c r="M68" s="14">
-        <v>57568846946.799843</v>
+        <v>92521935361.666504</v>
       </c>
       <c r="N68" s="14">
-        <v>52267764245.343971</v>
+        <v>106550895032.53207</v>
       </c>
       <c r="O68" s="14">
-        <v>79015909735.160721</v>
+        <v>147751750540.09772</v>
       </c>
       <c r="P68" s="14">
-        <v>139860187320.84354</v>
+        <v>234472772981.85355</v>
       </c>
       <c r="Q68" s="14">
-        <v>63800862502.71553</v>
+        <v>99571579158.191849</v>
       </c>
       <c r="R68" s="14">
-        <v>46081961069.442032</v>
+        <v>111288858036.67355</v>
       </c>
       <c r="S68" s="14">
-        <v>42896972158.237183</v>
+        <v>116215267485.60767</v>
       </c>
       <c r="T68" s="14">
-        <v>47482548483.276657</v>
+        <v>121495201237.32475</v>
       </c>
       <c r="U68" s="14"/>
       <c r="V68" s="14"/>
@@ -10130,28 +10128,28 @@
         <v>0</v>
       </c>
       <c r="M70" s="14">
-        <v>59745056710.934799</v>
+        <v>0</v>
       </c>
       <c r="N70" s="14">
-        <v>54116391842.6912</v>
+        <v>0</v>
       </c>
       <c r="O70" s="14">
-        <v>57302800286.882301</v>
+        <v>0</v>
       </c>
       <c r="P70" s="14">
-        <v>56730680443.3647</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="14">
-        <v>57585361285.437599</v>
+        <v>0</v>
       </c>
       <c r="R70" s="14">
-        <v>42669770039.151604</v>
+        <v>0</v>
       </c>
       <c r="S70" s="14">
-        <v>43554262909.863602</v>
+        <v>0</v>
       </c>
       <c r="T70" s="14">
-        <v>28123013392.4771</v>
+        <v>0</v>
       </c>
       <c r="U70" s="14"/>
       <c r="V70" s="14"/>
@@ -13751,28 +13749,28 @@
         <v>0</v>
       </c>
       <c r="M107" s="14">
-        <v>25273445589.593288</v>
+        <v>0</v>
       </c>
       <c r="N107" s="14">
-        <v>20146301049.69331</v>
+        <v>0</v>
       </c>
       <c r="O107" s="14">
-        <v>14165240884.03159</v>
+        <v>0</v>
       </c>
       <c r="P107" s="14">
-        <v>2906216820.2634602</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="14">
-        <v>38671529709.314102</v>
+        <v>0</v>
       </c>
       <c r="R107" s="14">
-        <v>35787300825.307999</v>
+        <v>0</v>
       </c>
       <c r="S107" s="14">
-        <v>12691758959.850641</v>
+        <v>0</v>
       </c>
       <c r="T107" s="14">
-        <v>9202252944.1115303</v>
+        <v>0</v>
       </c>
       <c r="U107" s="14"/>
       <c r="V107" s="14"/>
@@ -15526,28 +15524,28 @@
         <v>0</v>
       </c>
       <c r="M136" s="14">
-        <v>99745501958.745895</v>
+        <v>65273890837.404388</v>
       </c>
       <c r="N136" s="14">
-        <v>91687920574.183197</v>
+        <v>57717829781.18531</v>
       </c>
       <c r="O136" s="14">
-        <v>74842636967.232605</v>
+        <v>31705077564.381889</v>
       </c>
       <c r="P136" s="14">
-        <v>31801463246.716702</v>
+        <v>-22023000376.384537</v>
       </c>
       <c r="Q136" s="14">
-        <v>99745501958.745895</v>
+        <v>80831670382.622406</v>
       </c>
       <c r="R136" s="14">
-        <v>91687920574.183197</v>
+        <v>84805451360.3396</v>
       </c>
       <c r="S136" s="14">
-        <v>73767040034.988205</v>
+        <v>42904536084.97525</v>
       </c>
       <c r="T136" s="14">
-        <v>57865637815.165398</v>
+        <v>38944877366.799835</v>
       </c>
       <c r="U136" s="14"/>
       <c r="V136" s="14"/>
@@ -16054,17 +16052,14 @@
         <v>77</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D146" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D146" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
       <c r="G146" s="14"/>
-      <c r="H146" s="14">
-        <v>0</v>
-      </c>
+      <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="14"/>
       <c r="K146" s="14"/>
@@ -16105,49 +16100,24 @@
       <c r="AE146" s="13"/>
     </row>
     <row r="147" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B147" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="14"/>
       <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
       <c r="G147" s="14"/>
-      <c r="H147" s="14">
-        <v>0</v>
-      </c>
+      <c r="H147" s="14"/>
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
       <c r="K147" s="14"/>
       <c r="L147" s="14"/>
-      <c r="M147" s="14">
-        <v>8515145002.2769403</v>
-      </c>
-      <c r="N147" s="14">
-        <v>53286313601.684303</v>
-      </c>
-      <c r="O147" s="14">
-        <v>78958460955.762405</v>
-      </c>
-      <c r="P147" s="14">
-        <v>135646070041.88739</v>
-      </c>
-      <c r="Q147" s="14">
-        <v>13311284753.711399</v>
-      </c>
-      <c r="R147" s="14">
-        <v>89402046475.761002</v>
-      </c>
-      <c r="S147" s="14">
-        <v>106935872940.1974</v>
-      </c>
-      <c r="T147" s="14">
-        <v>126885100221.26099</v>
-      </c>
+      <c r="M147" s="14"/>
+      <c r="N147" s="14"/>
+      <c r="O147" s="14"/>
+      <c r="P147" s="14"/>
+      <c r="Q147" s="14"/>
+      <c r="R147" s="14"/>
+      <c r="S147" s="14"/>
+      <c r="T147" s="14"/>
       <c r="U147" s="14"/>
       <c r="V147" s="14"/>
       <c r="W147" s="14"/>
@@ -16161,47 +16131,44 @@
     </row>
     <row r="148" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B148" s="17" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
       <c r="G148" s="14"/>
-      <c r="H148" s="14">
-        <v>0</v>
-      </c>
+      <c r="H148" s="14"/>
       <c r="I148" s="14"/>
       <c r="J148" s="14"/>
       <c r="K148" s="14"/>
       <c r="L148" s="14"/>
       <c r="M148" s="14">
-        <v>8515145002.2769403</v>
+        <v>3406058000.91078</v>
       </c>
       <c r="N148" s="14">
-        <v>53286313601.684303</v>
+        <v>21314525440.673702</v>
       </c>
       <c r="O148" s="14">
-        <v>78958460955.762405</v>
+        <v>44294716978.485809</v>
       </c>
       <c r="P148" s="14">
-        <v>135646070041.88739</v>
+        <v>82247563784.766891</v>
       </c>
       <c r="Q148" s="14">
-        <v>13311284753.711399</v>
+        <v>5324513901.484519</v>
       </c>
       <c r="R148" s="14">
-        <v>89402046475.761002</v>
+        <v>35760818590.304405</v>
       </c>
       <c r="S148" s="14">
-        <v>106935872940.1974</v>
+        <v>59682639709.730804</v>
       </c>
       <c r="T148" s="14">
-        <v>126885100221.26099</v>
+        <v>75738087380.123383</v>
       </c>
       <c r="U148" s="14"/>
       <c r="V148" s="14"/>
@@ -16217,9 +16184,8 @@
     <row r="149" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
+      <c r="D149" s="14"/>
       <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
       <c r="G149" s="14"/>
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
@@ -16246,25 +16212,46 @@
       <c r="AE149" s="13"/>
     </row>
     <row r="150" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
+      <c r="B150" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
       <c r="G150" s="14"/>
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
       <c r="J150" s="14"/>
       <c r="K150" s="14"/>
       <c r="L150" s="14"/>
-      <c r="M150" s="14"/>
-      <c r="N150" s="14"/>
-      <c r="O150" s="14"/>
-      <c r="P150" s="14"/>
-      <c r="Q150" s="14"/>
-      <c r="R150" s="14"/>
-      <c r="S150" s="14"/>
-      <c r="T150" s="14"/>
+      <c r="M150" s="14">
+        <v>91915471862.976608</v>
+      </c>
+      <c r="N150" s="14">
+        <v>83255987450.294159</v>
+      </c>
+      <c r="O150" s="14">
+        <v>88158154287.51123</v>
+      </c>
+      <c r="P150" s="14">
+        <v>87277969912.868759</v>
+      </c>
+      <c r="Q150" s="14">
+        <v>88592863516.057846</v>
+      </c>
+      <c r="R150" s="14">
+        <v>65645800060.233231</v>
+      </c>
+      <c r="S150" s="14">
+        <v>67006558322.867081</v>
+      </c>
+      <c r="T150" s="14">
+        <v>43266174449.964767</v>
+      </c>
       <c r="U150" s="14"/>
       <c r="V150" s="14"/>
       <c r="W150" s="14"/>
@@ -16278,10 +16265,6 @@
     </row>
     <row r="151" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
       <c r="G151" s="14"/>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
@@ -16309,10 +16292,6 @@
     </row>
     <row r="152" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
       <c r="G152" s="14"/>
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
@@ -16340,10 +16319,6 @@
     </row>
     <row r="153" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
       <c r="G153" s="14"/>
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
@@ -16371,10 +16346,6 @@
     </row>
     <row r="154" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
       <c r="G154" s="14"/>
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
